--- a/archivos/llenados.xlsx
+++ b/archivos/llenados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F39B07-A58B-4254-8FBA-2DB3DB5CFD33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58589E1-13B8-41FB-8103-C0EA06A4094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -135,7 +136,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -229,15 +229,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>475785</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -251,13 +251,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2895600" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,75 +599,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
@@ -686,7 +693,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
